--- a/biology/Botanique/Afrothismia_pachyantha/Afrothismia_pachyantha.xlsx
+++ b/biology/Botanique/Afrothismia_pachyantha/Afrothismia_pachyantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrothismia pachyantha Schltr. est une espèce de plantes de la famille des Burmanniaceae et du genre Afrothismia, endémique du Cameroun
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une très petite herbe achlorophylienne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une très petite herbe achlorophylienne.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante endémique du Cameroun, seulement connue au mont Cameroun où elle est peut-être déjà éteinte et au mont Koupé. Elle a été collectée pour la première fois près de Moliwe en 1905 et n'a plus été redécouverte au mont Cameroun, malgré plusieurs recherches. Cette espèce a été redécouverte sur le mont Koupé en octobre 1995.
-L'espèce figure sur la liste rouge de l'UICN comme en danger critique d'extinction[3].
+L'espèce figure sur la liste rouge de l'UICN comme en danger critique d'extinction.
 </t>
         </is>
       </c>
